--- a/dormitory-server/src/main/resources/excel/userBatch.xlsx
+++ b/dormitory-server/src/main/resources/excel/userBatch.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduation-project\code\dormitory-server\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83D62DD-A4BC-46C4-81C9-4AB8BD2E8E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40352031-6268-46B2-98F3-2198642F8C03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{04EFF972-21BB-45BC-86D6-A814C669F8E0}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8712" xr2:uid="{04EFF972-21BB-45BC-86D6-A814C669F8E0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模版" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,41 +31,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>帐号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手机号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>性别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,21 +77,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -108,8 +138,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,15 +455,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98205F4F-677F-4848-8729-6935166CDD85}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,15 +482,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
